--- a/03.crawler/30.TecDoc/file/2.part/crawler_2.xlsx
+++ b/03.crawler/30.TecDoc/file/2.part/crawler_2.xlsx
@@ -41,33 +41,33 @@
     <t>Part Number</t>
   </si>
   <si>
+    <t>Aditional Description</t>
+  </si>
+  <si>
+    <t>GTIN/EAN</t>
+  </si>
+  <si>
+    <t>Packing Unit</t>
+  </si>
+  <si>
+    <t>Quantity Per Packaging Unit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Remanufactured</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Aditional Description</t>
-  </si>
-  <si>
-    <t>GTIN/EAN</t>
+    <t>Trade Number</t>
+  </si>
+  <si>
+    <t>Mandatory Material Certification</t>
   </si>
   <si>
     <t>OEM</t>
   </si>
   <si>
-    <t>Trade Number</t>
-  </si>
-  <si>
-    <t>Mandatory Material Certification</t>
-  </si>
-  <si>
-    <t>Packing Unit</t>
-  </si>
-  <si>
-    <t>Quantity Per Packaging Unit</t>
-  </si>
-  <si>
     <t>Picture</t>
   </si>
   <si>
@@ -95,18 +95,18 @@
     <t>0986398181</t>
   </si>
   <si>
+    <t>Twin</t>
+  </si>
+  <si>
+    <t>4047026191356</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>no longer deliverable by the manufacturer</t>
   </si>
   <si>
-    <t>Twin</t>
-  </si>
-  <si>
-    <t>4047026191356</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>https://web.tecalliance.net/tecdoc/qa/parts/30/0 986 398 181/detail?groups=298</t>
   </si>
   <si>
@@ -116,12 +116,12 @@
     <t>0986FW0066</t>
   </si>
   <si>
+    <t>4047026414158</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>4047026414158</t>
-  </si>
-  <si>
     <t>https://web.tecalliance.net/tecdoc/qa/parts/30/0 986 FW0 066/detail?groups=298</t>
   </si>
   <si>
@@ -173,12 +173,12 @@
     <t>3165141140033</t>
   </si>
   <si>
+    <t>007</t>
+  </si>
+  <si>
     <t>A1168200445;1168200445</t>
   </si>
   <si>
-    <t>007</t>
-  </si>
-  <si>
     <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 007/detail?groups=298</t>
   </si>
   <si>
@@ -203,16 +203,16 @@
     <t>3397001014</t>
   </si>
   <si>
+    <t>3165141140057</t>
+  </si>
+  <si>
     <t>Article to be discontinued</t>
   </si>
   <si>
-    <t>3165141140057</t>
+    <t>014</t>
   </si>
   <si>
     <t>A0008205845;A1268200345;A1268200445;0008205845;1268200345;1268200445</t>
-  </si>
-  <si>
-    <t>014</t>
   </si>
   <si>
     <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 014/detail?groups=298</t>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD1462"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1295,14 +1295,14 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
         <v>23</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -1310,20 +1310,20 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1354,35 +1354,35 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
@@ -1413,35 +1413,35 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -1472,35 +1472,35 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>37</v>
@@ -1531,35 +1531,35 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
@@ -1590,35 +1590,35 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -1649,35 +1649,35 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>45</v>
@@ -1708,35 +1708,35 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
         <v>47</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
       <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
         <v>50</v>
@@ -1767,35 +1767,35 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
         <v>53</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>54</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
         <v>55</v>
@@ -1826,35 +1826,35 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>61</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
         <v>62</v>
